--- a/biology/Botanique/Dissotis/Dissotis.xlsx
+++ b/biology/Botanique/Dissotis/Dissotis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dissotis est un genre de plantes de la famille des Melastomataceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 septembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 septembre 2017) :
 Dissotis alata A. &amp; R. Fernandes
 Dissotis anchietae A. &amp; R. Fernandes
 Dissotis aprica Gilg ex Engl.
@@ -619,11 +635,11 @@
 Dissotis trothae Gilg
 Dissotis welwitschii Cogn.
 Dissotis wildei Jacques-Felix
-Selon GRIN            (27 septembre 2017)[3] :
+Selon GRIN            (27 septembre 2017) :
 Dissotis canescens (E. Mey. ex Graham) Hook. f.
 Dissotis princeps (Kunth) Triana
 Dissotis senegambiensis (Guill. &amp; Perr.) Triana
-Selon NCBI  (27 septembre 2017)[4] :
+Selon NCBI  (27 septembre 2017) :
 Dissotis canescens
 Dissotis chevalieri
 Dissotis congolensis
@@ -645,7 +661,7 @@
 Dissotis trothae
 Dissotis tubulosa
 Dissotis welwitschii
-Selon The Plant List            (27 septembre 2017)[5] :
+Selon The Plant List            (27 septembre 2017) :
 Dissotis antennina (Sm.) Triana
 Dissotis barteri Hook. f.
 Dissotis brazzaei Cogn.
@@ -667,7 +683,7 @@
 Dissotis princeps (Kunth) Triana
 Dissotis pulchra A. Fern. &amp; R. Fern.
 Dissotis thollonii Cogn. ex Büttner
-Selon Tropicos                                           (27 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Dissotis afzelii Hook. f.
 Dissotis alata A. Fern. &amp; R. Fern.
 Dissotis alpestris Taub.
